--- a/数据整理/stocks/A股/上证主板/601857-中国石油.xlsx
+++ b/数据整理/stocks/A股/上证主板/601857-中国石油.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161217</t>
+          <t>159930</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+          <t>汇添富中证能源ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.03</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2646</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>470007</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富上证综合指数</t>
+          <t>博时上证自然资源ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>510210</t>
+          <t>470007</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国上证综指ETF</t>
+          <t>汇添富上证综合指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>95.40</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005960</t>
+          <t>005961</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时量化价值股票A</t>
+          <t>博时量化价值股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>89.33</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.76</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005961</t>
+          <t>005960</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时量化价值股票C</t>
+          <t>博时量化价值股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>89.33</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.76</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>159945</t>
+          <t>001418</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发中证全指能源ETF</t>
+          <t>泰达宏利创益灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>99.39</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>002273</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时上证自然资源ETF</t>
+          <t>泰达宏利创益灵活配置混合B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>98.26</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>690008</t>
+          <t>510210</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>民生加银中证内地资源主题指数</t>
+          <t>富国上证综指ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001418</t>
+          <t>002561</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>泰达宏利创益灵活配置混合A</t>
+          <t>东吴安鑫量化灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25.08</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>159930</t>
+          <t>161217</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇添富中证能源ETF</t>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>99.49</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>13.43</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002273</t>
+          <t>004495</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>泰达宏利创益灵活配置混合B</t>
+          <t>博时量化平衡混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>25.08</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>30.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002561</t>
+          <t>159945</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东吴安鑫量化灵活配置混合</t>
+          <t>广发中证全指能源ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>29.93</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004495</t>
+          <t>690008</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>博时量化平衡混合</t>
+          <t>民生加银中证内地资源主题指数</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>30.61</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -861,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,15 +1022,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -902,25 +1052,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000368</t>
+          <t>159930</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富沪深300安中指数</t>
+          <t>汇添富中证能源ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3530</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>470007</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富上证综合指数</t>
+          <t>博时上证自然资源ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1833</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>510210</t>
+          <t>470007</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国上证综指ETF</t>
+          <t>汇添富上证综合指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>98.82</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>002561</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时上证自然资源ETF</t>
+          <t>东吴安鑫量化灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>98.59</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>30.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1390</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>167301</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰上证综合ETF</t>
+          <t>方正富邦中证保险主题指数（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>98.36</t>
+          <t>14.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001418</t>
+          <t>000368</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰达宏利创益灵活配置混合A</t>
+          <t>汇添富沪深300安中指数</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>35.27</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002273</t>
+          <t>510210</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰达宏利创益灵活配置混合B</t>
+          <t>富国上证综指ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>35.27</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>159930</t>
+          <t>001418</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富中证能源ETF</t>
+          <t>泰达宏利创益灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>99.40</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12.93</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>35.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>159945</t>
+          <t>161217</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发中证全指能源ETF</t>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>99.33</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9.33</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>161217</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+          <t>国泰上证综合ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1192,15 +1442,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>95.38</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>3.97</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>167301</t>
+          <t>159945</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>方正富邦中证保险主题指数（LOF）</t>
+          <t>广发中证全指能源ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002561</t>
+          <t>002273</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东吴安鑫量化灵活配置混合</t>
+          <t>泰达宏利创益灵活配置混合B</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>30.36</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>35.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1276,15 +1556,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>93.32</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2.40</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1302,17 +1592,21 @@
           <t>东吴沪深300指数C</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>93.32</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2.40</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601857-中国石油.xlsx
+++ b/数据整理/stocks/A股/上证主板/601857-中国石油.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1592,7 +1593,6 @@
           <t>东吴沪深300指数C</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>93.32</t>
@@ -1608,6 +1608,1350 @@
       </c>
       <c r="H16" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1923</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7727</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2985</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2803</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>39.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>673030</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得多策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>51.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001139</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>26.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>165806</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东吴沪深300指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>165810</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东吴沪深300指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601857-中国石油.xlsx
+++ b/数据整理/stocks/A股/上证主板/601857-中国石油.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2957,4 +2958,3328 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>130.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>102.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4939</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5627</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8905</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8805</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8325</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6615</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6316</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4518</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4171</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3252</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>63.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2480</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2388</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2339</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1858</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>44.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002545</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方岳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>71.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>30.11</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>400013</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>55.47</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>27.20</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007687</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>55.47</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519965</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长信量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>30.11</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>27.20</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>73.81</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>95.77</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004858</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长信量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009595</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>山西证券裕盛一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>75.90</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>96.82</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>66.05</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>58.30</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>58.30</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601857-中国石油.xlsx
+++ b/数据整理/stocks/A股/上证主板/601857-中国石油.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6282,4 +6283,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>86</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601857-中国石油.xlsx
+++ b/数据整理/stocks/A股/上证主板/601857-中国石油.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6291,7 +6292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6302,17 +6303,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6322,14 +6343,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>86</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.38</v>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7186</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -6338,14 +6381,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.27</v>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6210</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -6354,14 +6419,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.5</v>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1789</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -6370,13 +6457,569 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1693</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>69.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>86</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601857-中国石油.xlsx
+++ b/数据整理/stocks/A股/上证主板/601857-中国石油.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6918,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6929,17 +6930,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6949,14 +6970,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.58</v>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2647</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -6965,14 +7008,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>86</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25.38</v>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6565</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -6981,14 +7046,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>34</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.27</v>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7056</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -6997,14 +7084,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.5</v>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3925</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -7013,13 +7122,1801 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2527</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2525</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2502</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012138</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2473</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2073</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005317</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004731</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家瑞尧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001635</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001488</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001636</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011534</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>96.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004335</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝新飞跃灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>44.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004732</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家瑞尧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001489</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>161816</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华中证等权重90指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012139</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>25.23</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011535</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005318</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>48</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>86</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601857-中国石油.xlsx
+++ b/数据整理/stocks/A股/上证主板/601857-中国石油.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8799,7 +8800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8810,17 +8811,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8830,14 +8851,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>48</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.34</v>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1513</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -8846,14 +8889,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.58</v>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5306</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -8862,14 +8927,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>86</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25.38</v>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -8878,14 +8965,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>34</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.27</v>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4474</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -8894,14 +9003,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>15</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.5</v>
+          <t>014048</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3295</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -8910,13 +9041,1323 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3237</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3010</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2922</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2165</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014349</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2090</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1641</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003876</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000753</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝量化对冲策略混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015394</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014068</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银悦享混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>67.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000754</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝量化对冲策略混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004335</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝新飞跃灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011607</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007404</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014519</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF联接A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014069</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银悦享混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>67.35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011907</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>86</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>34</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>13</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601857-中国石油.xlsx
+++ b/数据整理/stocks/A股/上证主板/601857-中国石油.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
-        <v>8.59</v>
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>8.34</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D4" t="n">
-        <v>4.58</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>25.38</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="D6" t="n">
-        <v>5.27</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
-        <v>1.5</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>13</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.27</v>
       </c>
     </row>
@@ -600,6 +617,2036 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9504</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4975</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0761</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9678</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3556</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2672</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007143</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2305</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2174</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014048</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012138</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014349</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成产业升级股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007144</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015305</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>54.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012877</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富荣福耀混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>61.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>517090</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>673100</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>61.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>517180</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>14.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159719</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>673101</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西部利得沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015306</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>54.54</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005186</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>96.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011607</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501219</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009747</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014198</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159731</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏中证石化产业ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浦银安盛沪港深基本面（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005187</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012139</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004892</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004891</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003125</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011907</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012876</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富荣福耀混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>61.19</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2023,7 +4070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3903,7 +5950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4529,7 +6576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7853,7 +9900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9197,7 +11244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9816,7 +11863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601857-中国石油.xlsx
+++ b/数据整理/stocks/A股/上证主板/601857-中国石油.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>8.630000000000001</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
-        <v>8.59</v>
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>8.34</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D5" t="n">
-        <v>4.58</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>25.38</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="D7" t="n">
-        <v>5.27</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
-        <v>1.5</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>13</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.27</v>
       </c>
     </row>
@@ -616,7 +633,1525 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2646</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001418</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002273</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3917</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007143</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2298</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2076</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012138</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007144</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>517090</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>517180</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>13.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159719</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006034</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011607</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159731</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证石化产业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012139</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>852200</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海通策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>852289</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海通策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2646,7 +4181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4070,7 +5605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5950,7 +7485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6576,7 +8111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9900,7 +11435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11244,7 +12779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11861,554 +13396,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159930</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证能源ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.49</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>13.43</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2646</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>510410</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时上证自然资源ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.26</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1671</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>470007</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富上证综合指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.91</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1596</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005961</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时量化价值股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.33</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1008</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005960</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时量化价值股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.33</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0991</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001418</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰达宏利创益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>25.08</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0829</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002273</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰达宏利创益灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>25.08</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0829</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>510210</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国上证综指ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>95.40</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0787</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002561</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>东吴安鑫量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>29.93</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0552</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>161217</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国投瑞银中证上游资源产业指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.03</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0526</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004495</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时量化平衡混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>30.61</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0459</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>159945</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>广发中证全指能源ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>99.39</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0427</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>690008</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>民生加银中证内地资源主题指数</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0335</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>